--- a/storage/app/templates/contoh surat jalan.xlsx
+++ b/storage/app/templates/contoh surat jalan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NotaKuy\storage\app\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NotaQu\storage\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -610,15 +610,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,47 +655,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,6 +731,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -726,27 +747,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1399,77 +1399,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="47" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:11" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="15"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="G6" s="51" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
+      <c r="G6" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
@@ -1484,79 +1484,79 @@
       <c r="H7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
       <c r="G8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="54">
         <v>45854</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
       <c r="G9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
       <c r="G10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
       <c r="G11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1570,17 +1570,17 @@
       <c r="D13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43" t="s">
+      <c r="F13" s="38"/>
+      <c r="G13" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" s="8"/>
@@ -1588,27 +1588,27 @@
       <c r="D14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59" t="s">
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="61"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="68"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="23"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" s="18" t="s">
@@ -1620,15 +1620,15 @@
       <c r="D16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
@@ -1640,15 +1640,15 @@
       <c r="D17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="18" t="s">
@@ -1660,63 +1660,63 @@
       <c r="D18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="59"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
     </row>
     <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="56"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
@@ -1729,84 +1729,84 @@
     </row>
     <row r="25" spans="2:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25" t="s">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
     </row>
     <row r="31" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
     </row>
     <row r="32" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F32" s="2"/>
@@ -1817,77 +1817,77 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="47" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
     </row>
     <row r="34" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="47" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
     </row>
     <row r="35" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="47" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="47" t="s">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
     </row>
     <row r="37" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="15"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="50"/>
-      <c r="G38" s="51" t="s">
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="52"/>
+      <c r="G38" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="str">
@@ -1903,36 +1903,36 @@
       <c r="H39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="40" t="str">
+      <c r="I39" s="36" t="str">
         <f>I7</f>
         <v xml:space="preserve">0453/07/2025/DO/RPN/05	</v>
       </c>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B40" s="63"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="65"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="44"/>
       <c r="G40" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="39">
+      <c r="I40" s="54">
         <f>I8</f>
         <v>45854</v>
       </c>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B41" s="63"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="65"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="44"/>
       <c r="G41" s="11" t="str">
         <f>G9</f>
         <v>Nomor PO</v>
@@ -1940,49 +1940,49 @@
       <c r="H41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="40" t="str">
+      <c r="I41" s="36" t="str">
         <f>I9</f>
         <v>PO-206679</v>
       </c>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B42" s="63"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="65"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="44"/>
       <c r="G42" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="40" t="str">
+      <c r="I42" s="36" t="str">
         <f>I10</f>
         <v>-</v>
       </c>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
       <c r="M42" s="19"/>
     </row>
     <row r="43" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="66"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="68"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="47"/>
       <c r="G43" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="40" t="str">
+      <c r="I43" s="36" t="str">
         <f>I11</f>
         <v>-</v>
       </c>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
     </row>
     <row r="44" spans="2:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="45" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1995,126 +1995,126 @@
       <c r="D45" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="42"/>
-      <c r="G45" s="43" t="s">
+      <c r="F45" s="38"/>
+      <c r="G45" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="45"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="41"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46" s="8"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="33" t="s">
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="35"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="32"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47" s="6"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="38"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="35"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48" s="6"/>
       <c r="C48" s="5"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="38"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="35"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B49" s="6"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="38"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="35"/>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B50" s="6"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="38"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="35"/>
       <c r="Q50" s="19"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B51" s="6"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="38"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="35"/>
       <c r="Q51" s="19"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B52" s="6"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="38"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="35"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B53" s="6"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="38"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="35"/>
     </row>
     <row r="54" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B54" s="4"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="32"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="29"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="str">
@@ -2134,73 +2134,73 @@
     </row>
     <row r="57" spans="2:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="58" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29" t="s">
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="25" t="str">
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="22" t="str">
         <f>F30</f>
         <v>Herwan Cahyono Adi, SP.</v>
       </c>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="88">
@@ -2210,12 +2210,6 @@
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I9:K9"/>
-    <mergeCell ref="B1:C4"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:K4"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="E13:F13"/>
@@ -2223,6 +2217,13 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:K14"/>
     <mergeCell ref="B8:E11"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="B1:C4"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:K4"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
@@ -2235,6 +2236,10 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G19:K19"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="F27:K27"/>
     <mergeCell ref="B28:E28"/>
@@ -2287,11 +2292,6 @@
     <mergeCell ref="F60:K60"/>
     <mergeCell ref="B61:E61"/>
     <mergeCell ref="F61:K61"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.5" header="0.3" footer="0.3"/>

--- a/storage/app/templates/contoh surat jalan.xlsx
+++ b/storage/app/templates/contoh surat jalan.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
   <si>
     <t>….................................</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>brng</t>
+  </si>
+  <si>
+    <t>Tanggal Kirim</t>
   </si>
 </sst>
 </file>
@@ -610,24 +613,117 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,99 +749,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1381,7 +1384,7 @@
   <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1399,77 +1402,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="49" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="49" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="49" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:11" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="15"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="G6" s="53" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="G6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
@@ -1484,79 +1487,79 @@
       <c r="H7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
       <c r="G8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="28">
         <v>45854</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
       <c r="G9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
       <c r="G10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
       <c r="G11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1570,17 +1573,17 @@
       <c r="D13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39" t="s">
+      <c r="F13" s="30"/>
+      <c r="G13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" s="8"/>
@@ -1588,27 +1591,27 @@
       <c r="D14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="68"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" s="18" t="s">
@@ -1620,15 +1623,15 @@
       <c r="D16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
@@ -1640,15 +1643,15 @@
       <c r="D17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="18" t="s">
@@ -1660,63 +1663,63 @@
       <c r="D18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="59"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="46"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="46"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="46"/>
     </row>
     <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="55"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
@@ -1729,84 +1732,84 @@
     </row>
     <row r="25" spans="2:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26" t="s">
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22" t="s">
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
     </row>
     <row r="31" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
     </row>
     <row r="32" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F32" s="2"/>
@@ -1817,77 +1820,77 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="49" t="s">
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
     </row>
     <row r="34" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="49" t="s">
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
     </row>
     <row r="35" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="49" t="s">
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
     </row>
     <row r="36" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="49" t="s">
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
     </row>
     <row r="37" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="15"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="52"/>
-      <c r="G38" s="53" t="s">
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="G38" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="str">
@@ -1903,36 +1906,36 @@
       <c r="H39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="36" t="str">
+      <c r="I39" s="27" t="str">
         <f>I7</f>
         <v xml:space="preserve">0453/07/2025/DO/RPN/05	</v>
       </c>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="44"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
       <c r="G40" s="11" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="54">
+      <c r="I40" s="28">
         <f>I8</f>
         <v>45854</v>
       </c>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="44"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="40"/>
       <c r="G41" s="11" t="str">
         <f>G9</f>
         <v>Nomor PO</v>
@@ -1940,49 +1943,49 @@
       <c r="H41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="36" t="str">
+      <c r="I41" s="27" t="str">
         <f>I9</f>
         <v>PO-206679</v>
       </c>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="44"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
       <c r="G42" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="36" t="str">
+      <c r="I42" s="27" t="str">
         <f>I10</f>
         <v>-</v>
       </c>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
       <c r="M42" s="19"/>
     </row>
     <row r="43" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="47"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="43"/>
       <c r="G43" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="36" t="str">
+      <c r="I43" s="27" t="str">
         <f>I11</f>
         <v>-</v>
       </c>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
     </row>
     <row r="44" spans="2:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="45" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1995,126 +1998,126 @@
       <c r="D45" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="39" t="s">
+      <c r="F45" s="30"/>
+      <c r="G45" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="41"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="33"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46" s="8"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="30" t="s">
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="32"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="65"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47" s="6"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="35"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="68"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48" s="6"/>
       <c r="C48" s="5"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="35"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="68"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B49" s="6"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="35"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="68"/>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B50" s="6"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="35"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="68"/>
       <c r="Q50" s="19"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B51" s="6"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="35"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="68"/>
       <c r="Q51" s="19"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B52" s="6"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="35"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="68"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B53" s="6"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="35"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="68"/>
     </row>
     <row r="54" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B54" s="4"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="29"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="62"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="str">
@@ -2134,96 +2137,128 @@
     </row>
     <row r="57" spans="2:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="58" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26" t="s">
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="22" t="str">
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="57" t="str">
         <f>F30</f>
         <v>Herwan Cahyono Adi, SP.</v>
       </c>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="B8:E11"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="B1:C4"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:K4"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="F62:K62"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:K59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F60:K60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="F61:K61"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="F58:K58"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="G50:K50"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="B40:E43"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="B33:C36"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="J33:K36"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:K29"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
@@ -2240,58 +2275,26 @@
     <mergeCell ref="G17:K17"/>
     <mergeCell ref="G18:K18"/>
     <mergeCell ref="G19:K19"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="B33:C36"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="J33:K36"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="B40:E43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="F58:K58"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="G50:K50"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="F62:K62"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:K59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:K60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="F61:K61"/>
+    <mergeCell ref="B1:C4"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:K4"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B8:E11"/>
+    <mergeCell ref="G15:K15"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.5" header="0.3" footer="0.3"/>
